--- a/Pre-processing/AmeriFluxVar.xlsx
+++ b/Pre-processing/AmeriFluxVar.xlsx
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,26 +296,30 @@
     <t>Gross Primary Production calculated as GPP_st_ ANN = Reco_st - NEE_st_ ANN</t>
   </si>
   <si>
-    <t>NEE_or_f ANN</t>
-  </si>
-  <si>
     <t>NEE_or filled using the Artificial Neural Network method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NEE_or_f ANNqc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NEE_or_fANN quality flags: 0 = original, 1 = filled using original meteorological inputs or filled with qc=1, 2 = filled using filled meteorological inputs with qc=2 or 3, 3 = not filled using ANN due to one or more input missed but filled with the MDS method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPP_or_ ANN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gross Primary Production calculated as GPP_or_ ANN = Reco_or - NEE_or_ ANN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>NEE_or_fANN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEE_or_fANNqc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPP_or_ANN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -708,370 +708,370 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
